--- a/songlyrics.xlsx
+++ b/songlyrics.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{107C5ECF-5842-45FD-A984-3FC8FA414EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CE2B23DD-AE8F-4290-B6D4-1388AFAF55E5}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{107C5ECF-5842-45FD-A984-3FC8FA414EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{78096217-6DBE-435E-B07B-F1B7A681AE3D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="songlyrics" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">songlyrics!$A$1:$H$74</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -265,143 +268,6 @@
     <t>The Girl Is Mine</t>
   </si>
   <si>
-    <t>[1st Verse (Michael)]
-Every Night She Walks Right In My Dreams
-Since I Met Her From The Start
-I'm So Proud I Am The Only One
-Who Is Special In Her Heart
-[Chorus]
-The Girl Is Mine
-The Doggone Girl Is Mine
-I Know She's Mine
-Because The Doggone Girl Is Mine
-[2nd Verse (Paul)]
-I Don't Understand The Way You Think
-Saying That She's Yours Not Mine
-Sending Roses And Your Silly Dreams
-Really Just A Waste Of Time
-[Chorus]
-Because She's Mine
-The Doggone Girl Is Mine
-Don't Waste Your Time
-Because The Doggone Girl Is Mine
-[Bridge (Paul)]
-I Love You More Than He
-(Take You Anywhere)
-[Michael]
-But I Love You Endlessly
-(Loving We Will Share)
-[Michael &amp; Paul]
-So Come And Go With Me
-To One Town
-[Michael]
-But We Both Cannot Have Her
-So It's One Or The Other
-And One Day You'll Discover
-That She's My Girl Forever And Ever
-[3rd Verse (Paul)]
-I Don't Build Your Hopes To Be Let Down
-'Cause I Really Feel It's Time
-[Michael]
-I Know She'll Tell You I'm The One For Her
-'Cause She Said I Blow Her Mind
-[Chorus (Michael)]
-The Girl Is Mine
-The Doggone Girl Is Mine
-Don't Waste Your Time
-Because The Doggone Girl Is Mine
-[Michael &amp; Paul]
-She's Mine, She's Mine
-No, No, No, She's Mine
-The Girl Is Mine, The Girl Is Mine
-The Girl Is Mine, The Girl Is Mine
-[Paul]
-The Girl Is Mine, (Yep) She's Mine
-The Girl Is Mine, (Yep) She's Mine
-[Michael]
-Don't Waste Your Time
-Because The Doggone Girl Is Mine
-The Girl Is Mine, The Girl Is Mine
-[Paul]
-Michael, We're Not Going To Fight About This, Okay
-[Michael]
-Paul, I Think I Told You, I'm A Lover Not A Fighter
-[Paul]
-I've Heard It All Before, Michael
-She Told Me That I'm Her Forever Lover, You Know, Don't You Remember
-[Michael]
-Well, After Loving Me, She Said She Couldn't Love Another
-[Paul]
-Is That What She Said
-[Michael]
-Yes, She Said It, You Keep Dreaming
-[Paul]
-I Don't Believe It
-[Michael &amp; Paul]
-The Girl Is Mine (Mine, Mine, Mine)
-https://www.letssingit.com/michael-jackson-in-duet-with-paul-mccartney-lyrics-the-girl-is-mine-hxqqdkp
-LetsSingIt - The Internet Lyrics Database</t>
-  </si>
-  <si>
-    <t>It's close to midnight and something evil's lurking in the dark
-Under the moonlight you see a sight that almost stops your heart
-You try to scream but terror takes the sound before you make it
-You start to freeze as horror looks you right between the eyes,
-You're paralyzed
-'Cause this is thriller, thriller night
-And no one's gonna save you from the beast about to strike
-You know it's thriller, thriller night
-You're fighting for your life inside a killer, thriller tonight
-You hear the door slam and realize there's nowhere left to run
-You feel the cold hand and wonder if you'll ever see the sun
-You close your eyes and hope that this is just imagination
-Girl, But all the while you hear a creature creepin' up behind
-You're out of time
-'Cause this is thriller, thriller night
-There ain't no second chance against the thing with forty eyes, girl
-You know it's thriller, thriller night
-You're fighting for your life inside a killer, thriller tonight
-Night creatures call
-And the dead start to walk in their masquerade
-There's no escapin' the jaws of the alien this time (they're open wide)
-This is the end of your life
-They're out to get you, there's demons closing in on every side
-They will possess you unless you change that number on your dial
-Now is the time for you and I to cuddle close together, yeah
-All through the night I'll save you from the terror on the screen,
-I'll make you see
-That this is thriller, thriller night
-'Cause I can thrill you more than any ghost would dare to try
-Girl, this is thriller, thriller night
-So let me hold you tight and share a killer, diller, chiller,
-Thriller here tonight
-Darkness falls across the land
-The midnight hour is close at hand
-Creatures crawl in search of blood
-To terrorize your neighborhood
-And whosoever shall be found
-Without the soul for getting down
-Must stand and face the hounds of hell
-And rot inside a corpse's shell
-I'm gonna thrill you tonight
-(Thriller, thriller)
-I'm gonna thrill you tonight
-(Thriller night, thriller)
-I'm gonna thrill you tonight
-Ooh, babe, I'm gonna thrill you tonight
-Thriller night, babe
-The foulest stench is in the air
-The funk of forty thousand years
-And grizzly ghouls from every tomb
-Are closing in to seal your doom
-And though you fight to stay alive
-Your body starts to shiver
-For no mere mortal can resist
-The evil of the thriller
-https://www.letssingit.com/michael-jackson-lyrics-thriller-fwltnzk
-LetsSingIt - The Internet Lyrics Database</t>
-  </si>
-  <si>
     <t>They told him don't you ever come around here
 Don't wanna see your face, you better disappear
 The fire's in their eyes and their words are really clear
@@ -909,67 +775,6 @@
 How do you get your licks?
 What you gonna do?
 Aw what you gonna do?</t>
-  </si>
-  <si>
-    <t>(ohh yea)
-She's taking down easy
-Going down to her knees
-Going down to the cover
-Down, down to 90 degrees (Ohh)
-She's blowing me crazy
-Till my ammounition is, dry
-She's using her head again
-She's using her head
-She's using her head again
-I'm just given the dog a bone
-Given the dog a bone
-Given the dog a bone
-Given the dog a bone
-I'm just given the dog a bone
-Given the dog a bone
-I'm just given the dog a bone
-Given the dog a bone
-She's no monalisa
-She's no playboy star
-But she'll send you to heaven
-Then explode you to mars
-She's using her head again
-She's using her head
-She's using her head again
-I'm just given the dog a bone
-Given the dog a bone
-Given the dog a bone
-Given the dog a bone
-I'm just given the dog a bone
-Given the dog a bone
-I'm just given the dog a bone
-Given the dog a bone
-(Guitar Solo)
-She's got the power of union
-She only gets when it's hot
-And if she likes what your doing
-She'll give you the luck
-Giving everthing up
-Given the dog a bone
-Given the dog a bone
-Given the dog a bone
-Given the dog a bone
-Given the dog a bone
-Given the dog a bone
-I'm just given the dog a bone
-Given the dog a bone
-I'm just given the dog a bone
-Given the dog a bone
-Given the dog a bone
-Given the dog a bone
-I'm just given the dog a bone
-Given the dog a bone
-I'm just given the dog
-Given the dog
-Given the dog
-I'm just given the dog a bone
-https://www.letssingit.com/ac-dc-lyrics-given-the-dog-a-bone-w4q48q4
-LetsSingIt - The Internet Lyrics Database</t>
   </si>
   <si>
     <t>Given The Dog A Bone</t>
@@ -5001,6 +4806,198 @@
   </si>
   <si>
     <t>soul</t>
+  </si>
+  <si>
+    <t>[1st Verse (Michael)]
+Every Night She Walks Right In My Dreams
+Since I Met Her From The Start
+I'm So Proud I Am The Only One
+Who Is Special In Her Heart
+[Chorus]
+The Girl Is Mine
+The Doggone Girl Is Mine
+I Know She's Mine
+Because The Doggone Girl Is Mine
+[2nd Verse (Paul)]
+I Don't Understand The Way You Think
+Saying That She's Yours Not Mine
+Sending Roses And Your Silly Dreams
+Really Just A Waste Of Time
+[Chorus]
+Because She's Mine
+The Doggone Girl Is Mine
+Don't Waste Your Time
+Because The Doggone Girl Is Mine
+[Bridge (Paul)]
+I Love You More Than He
+(Take You Anywhere)
+[Michael]
+But I Love You Endlessly
+(Loving We Will Share)
+[Michael &amp; Paul]
+So Come And Go With Me
+To One Town
+[Michael]
+But We Both Cannot Have Her
+So It's One Or The Other
+And One Day You'll Discover
+That She's My Girl Forever And Ever
+[3rd Verse (Paul)]
+I Don't Build Your Hopes To Be Let Down
+'Cause I Really Feel It's Time
+[Michael]
+I Know She'll Tell You I'm The One For Her
+'Cause She Said I Blow Her Mind
+[Chorus (Michael)]
+The Girl Is Mine
+The Doggone Girl Is Mine
+Don't Waste Your Time
+Because The Doggone Girl Is Mine
+[Michael &amp; Paul]
+She's Mine, She's Mine
+No, No, No, She's Mine
+The Girl Is Mine, The Girl Is Mine
+The Girl Is Mine, The Girl Is Mine
+[Paul]
+The Girl Is Mine, (Yep) She's Mine
+The Girl Is Mine, (Yep) She's Mine
+[Michael]
+Don't Waste Your Time
+Because The Doggone Girl Is Mine
+The Girl Is Mine, The Girl Is Mine
+[Paul]
+Michael, We're Not Going To Fight About This, Okay
+[Michael]
+Paul, I Think I Told You, I'm A Lover Not A Fighter
+[Paul]
+I've Heard It All Before, Michael
+She Told Me That I'm Her Forever Lover, You Know, Don't You Remember
+[Michael]
+Well, After Loving Me, She Said She Couldn't Love Another
+[Paul]
+Is That What She Said
+[Michael]
+Yes, She Said It, You Keep Dreaming
+[Paul]
+I Don't Believe It
+[Michael &amp; Paul]
+The Girl Is Mine (Mine, Mine, Mine)</t>
+  </si>
+  <si>
+    <t>It's close to midnight and something evil's lurking in the dark
+Under the moonlight you see a sight that almost stops your heart
+You try to scream but terror takes the sound before you make it
+You start to freeze as horror looks you right between the eyes,
+You're paralyzed
+'Cause this is thriller, thriller night
+And no one's gonna save you from the beast about to strike
+You know it's thriller, thriller night
+You're fighting for your life inside a killer, thriller tonight
+You hear the door slam and realize there's nowhere left to run
+You feel the cold hand and wonder if you'll ever see the sun
+You close your eyes and hope that this is just imagination
+Girl, But all the while you hear a creature creepin' up behind
+You're out of time
+'Cause this is thriller, thriller night
+There ain't no second chance against the thing with forty eyes, girl
+You know it's thriller, thriller night
+You're fighting for your life inside a killer, thriller tonight
+Night creatures call
+And the dead start to walk in their masquerade
+There's no escapin' the jaws of the alien this time (they're open wide)
+This is the end of your life
+They're out to get you, there's demons closing in on every side
+They will possess you unless you change that number on your dial
+Now is the time for you and I to cuddle close together, yeah
+All through the night I'll save you from the terror on the screen,
+I'll make you see
+That this is thriller, thriller night
+'Cause I can thrill you more than any ghost would dare to try
+Girl, this is thriller, thriller night
+So let me hold you tight and share a killer, diller, chiller,
+Thriller here tonight
+Darkness falls across the land
+The midnight hour is close at hand
+Creatures crawl in search of blood
+To terrorize your neighborhood
+And whosoever shall be found
+Without the soul for getting down
+Must stand and face the hounds of hell
+And rot inside a corpse's shell
+I'm gonna thrill you tonight
+(Thriller, thriller)
+I'm gonna thrill you tonight
+(Thriller night, thriller)
+I'm gonna thrill you tonight
+Ooh, babe, I'm gonna thrill you tonight
+Thriller night, babe
+The foulest stench is in the air
+The funk of forty thousand years
+And grizzly ghouls from every tomb
+Are closing in to seal your doom
+And though you fight to stay alive
+Your body starts to shiver
+For no mere mortal can resist
+The evil of the thriller</t>
+  </si>
+  <si>
+    <t>(ohh yea)
+She's taking down easy
+Going down to her knees
+Going down to the cover
+Down, down to 90 degrees (Ohh)
+She's blowing me crazy
+Till my ammounition is, dry
+She's using her head again
+She's using her head
+She's using her head again
+I'm just given the dog a bone
+Given the dog a bone
+Given the dog a bone
+Given the dog a bone
+I'm just given the dog a bone
+Given the dog a bone
+I'm just given the dog a bone
+Given the dog a bone
+She's no monalisa
+She's no playboy star
+But she'll send you to heaven
+Then explode you to mars
+She's using her head again
+She's using her head
+She's using her head again
+I'm just given the dog a bone
+Given the dog a bone
+Given the dog a bone
+Given the dog a bone
+I'm just given the dog a bone
+Given the dog a bone
+I'm just given the dog a bone
+Given the dog a bone
+[Guitar Solo]
+She's got the power of union
+She only gets when it's hot
+And if she likes what your doing
+She'll give you the luck
+Giving everthing up
+Given the dog a bone
+Given the dog a bone
+Given the dog a bone
+Given the dog a bone
+Given the dog a bone
+Given the dog a bone
+I'm just given the dog a bone
+Given the dog a bone
+I'm just given the dog a bone
+Given the dog a bone
+Given the dog a bone
+Given the dog a bone
+I'm just given the dog a bone
+Given the dog a bone
+I'm just given the dog
+Given the dog
+Given the dog
+I'm just given the dog a bone</t>
   </si>
 </sst>
 </file>
@@ -5325,16 +5322,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="408.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="172.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="116.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5360,7 +5358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1982</v>
       </c>
@@ -5386,7 +5384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1982</v>
       </c>
@@ -5412,7 +5410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1982</v>
       </c>
@@ -5435,10 +5433,10 @@
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1982</v>
       </c>
@@ -5461,10 +5459,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1982</v>
       </c>
@@ -5484,13 +5482,13 @@
         <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -5510,13 +5508,13 @@
         <v>66</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1982</v>
       </c>
@@ -5536,13 +5534,13 @@
         <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1982</v>
       </c>
@@ -5562,13 +5560,13 @@
         <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1982</v>
       </c>
@@ -5588,24 +5586,24 @@
         <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1980</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
       </c>
       <c r="E11">
         <v>26.1</v>
@@ -5614,24 +5612,24 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1980</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
       </c>
       <c r="E12">
         <v>26.1</v>
@@ -5640,24 +5638,24 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1980</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
       </c>
       <c r="E13">
         <v>26.1</v>
@@ -5666,24 +5664,24 @@
         <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1980</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
       </c>
       <c r="E14">
         <v>26.1</v>
@@ -5692,24 +5690,24 @@
         <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1980</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
       </c>
       <c r="E15">
         <v>26.1</v>
@@ -5718,24 +5716,24 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1980</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
       </c>
       <c r="E16">
         <v>26.1</v>
@@ -5744,24 +5742,24 @@
         <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1980</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
       </c>
       <c r="E17">
         <v>26.1</v>
@@ -5770,24 +5768,24 @@
         <v>50</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1980</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
       </c>
       <c r="E18">
         <v>26.1</v>
@@ -5796,24 +5794,24 @@
         <v>50</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1980</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
       </c>
       <c r="E19">
         <v>26.1</v>
@@ -5822,24 +5820,24 @@
         <v>50</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1980</v>
       </c>
       <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
       </c>
       <c r="E20">
         <v>26.1</v>
@@ -5848,24 +5846,24 @@
         <v>50</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2011</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E21">
         <v>25.3</v>
@@ -5874,24 +5872,24 @@
         <v>31</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2011</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E22">
         <v>25.3</v>
@@ -5900,24 +5898,24 @@
         <v>31</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2011</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E23">
         <v>25.3</v>
@@ -5926,24 +5924,24 @@
         <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2011</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E24">
         <v>25.3</v>
@@ -5952,24 +5950,24 @@
         <v>31</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2011</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E25">
         <v>25.3</v>
@@ -5978,24 +5976,24 @@
         <v>31</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2011</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26">
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E26">
         <v>25.3</v>
@@ -6004,24 +6002,24 @@
         <v>31</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2011</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27">
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E27">
         <v>25.3</v>
@@ -6030,24 +6028,24 @@
         <v>31</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2011</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E28">
         <v>25.3</v>
@@ -6056,24 +6054,24 @@
         <v>31</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2011</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E29">
         <v>25.3</v>
@@ -6082,24 +6080,24 @@
         <v>31</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2011</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E30">
         <v>25.3</v>
@@ -6108,24 +6106,24 @@
         <v>31</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2011</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E31">
         <v>25.3</v>
@@ -6134,24 +6132,24 @@
         <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2011</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E32">
         <v>25.3</v>
@@ -6160,24 +6158,24 @@
         <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2011</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E33">
         <v>25.3</v>
@@ -6186,956 +6184,957 @@
         <v>31</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2002</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F34">
         <v>27</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2002</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F35">
         <v>27</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2002</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F36">
         <v>27</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2002</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F37">
         <v>27</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2002</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F38">
         <v>27</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2002</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F39">
         <v>27</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2002</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F40">
         <v>27</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2002</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F41">
         <v>27</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2002</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F42">
         <v>27</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2002</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F43">
         <v>27</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2002</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F44">
         <v>27</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2002</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F45">
         <v>27</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2002</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F46">
         <v>27</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2002</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F47">
         <v>27</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2002</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F48">
         <v>27</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1984</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F49">
         <v>25</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1984</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F50">
         <v>25</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1984</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F51">
         <v>25</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1984</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F52">
         <v>25</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1984</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F53">
         <v>25</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1984</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F54">
         <v>25</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1984</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F55">
         <v>25</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1984</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F56">
         <v>25</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1984</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57">
         <v>25</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1984</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58">
         <v>25</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1984</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F59">
         <v>25</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1984</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F60">
         <v>25</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1984</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F61">
         <v>25</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1984</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F62">
         <v>25</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1991</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F63">
         <v>25.2</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1991</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F64">
         <v>25.2</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1991</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F65">
         <v>25.2</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1991</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F66">
         <v>25.2</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1991</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F67">
         <v>25.2</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1991</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F68">
         <v>25.2</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1991</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F69">
         <v>25.2</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1991</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F70">
         <v>25.2</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1991</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F71">
         <v>25.2</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1991</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72">
         <v>25.2</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1991</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73">
         <v>25.2</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1991</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74">
         <v>25.2</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H74" xr:uid="{876A49F4-DE26-46A1-8AF4-F48891A13118}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
